--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H2">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I2">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J2">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.09661449999999999</v>
+        <v>0.3477795</v>
       </c>
       <c r="N2">
-        <v>0.193229</v>
+        <v>0.695559</v>
       </c>
       <c r="O2">
-        <v>0.03704165672764608</v>
+        <v>0.7300808741333977</v>
       </c>
       <c r="P2">
-        <v>0.02500315727472327</v>
+        <v>0.6432659787865084</v>
       </c>
       <c r="Q2">
-        <v>0.36476393863375</v>
+        <v>1.1080863484125</v>
       </c>
       <c r="R2">
-        <v>1.459055754535</v>
+        <v>4.43234539365</v>
       </c>
       <c r="S2">
-        <v>0.006328380748611078</v>
+        <v>0.1023455893544741</v>
       </c>
       <c r="T2">
-        <v>0.003064160669480556</v>
+        <v>0.06430866974353594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H3">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I3">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J3">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.074835333333333</v>
+        <v>0.04758299999999999</v>
       </c>
       <c r="N3">
-        <v>3.224506</v>
+        <v>0.142749</v>
       </c>
       <c r="O3">
-        <v>0.4120880556860346</v>
+        <v>0.09988926384070786</v>
       </c>
       <c r="P3">
-        <v>0.417239806919711</v>
+        <v>0.1320169463780862</v>
       </c>
       <c r="Q3">
-        <v>4.057995120498333</v>
+        <v>0.151607765025</v>
       </c>
       <c r="R3">
-        <v>24.34797072299</v>
+        <v>0.9096465901499999</v>
       </c>
       <c r="S3">
-        <v>0.07040317169155395</v>
+        <v>0.01400286727151525</v>
       </c>
       <c r="T3">
-        <v>0.05113313459006708</v>
+        <v>0.01319801526142284</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.7754575</v>
+        <v>3.186175</v>
       </c>
       <c r="H4">
-        <v>7.550915</v>
+        <v>6.37235</v>
       </c>
       <c r="I4">
-        <v>0.1708449704380497</v>
+        <v>0.1401839069896986</v>
       </c>
       <c r="J4">
-        <v>0.1225509496985904</v>
+        <v>0.09997212951453034</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.436816333333333</v>
+        <v>0.080995</v>
       </c>
       <c r="N4">
-        <v>4.310449</v>
+        <v>0.242985</v>
       </c>
       <c r="O4">
-        <v>0.5508702875863194</v>
+        <v>0.1700298620258944</v>
       </c>
       <c r="P4">
-        <v>0.5577570358055657</v>
+        <v>0.2247170748354054</v>
       </c>
       <c r="Q4">
-        <v>5.424639001805834</v>
+        <v>0.258064244125</v>
       </c>
       <c r="R4">
-        <v>32.547834010835</v>
+        <v>1.54838546475</v>
       </c>
       <c r="S4">
-        <v>0.09411341799788465</v>
+        <v>0.02383545036370927</v>
       </c>
       <c r="T4">
-        <v>0.06835365443904276</v>
+        <v>0.02246544450957155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>3.981953</v>
       </c>
       <c r="I5">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J5">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.09661449999999999</v>
+        <v>0.3477795</v>
       </c>
       <c r="N5">
-        <v>0.193229</v>
+        <v>0.695559</v>
       </c>
       <c r="O5">
-        <v>0.03704165672764608</v>
+        <v>0.7300808741333977</v>
       </c>
       <c r="P5">
-        <v>0.02500315727472327</v>
+        <v>0.6432659787865084</v>
       </c>
       <c r="Q5">
-        <v>0.1282381327061667</v>
+        <v>0.4616138744545001</v>
       </c>
       <c r="R5">
-        <v>0.7694287962369999</v>
+        <v>2.769683246727</v>
       </c>
       <c r="S5">
-        <v>0.0022248354190253</v>
+        <v>0.04263579648186473</v>
       </c>
       <c r="T5">
-        <v>0.001615876191205981</v>
+        <v>0.04018519077126683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>3.981953</v>
       </c>
       <c r="I6">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J6">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.074835333333333</v>
+        <v>0.04758299999999999</v>
       </c>
       <c r="N6">
-        <v>3.224506</v>
+        <v>0.142749</v>
       </c>
       <c r="O6">
-        <v>0.4120880556860346</v>
+        <v>0.09988926384070786</v>
       </c>
       <c r="P6">
-        <v>0.417239806919711</v>
+        <v>0.1320169463780862</v>
       </c>
       <c r="Q6">
-        <v>1.426647926690889</v>
+        <v>0.063157756533</v>
       </c>
       <c r="R6">
-        <v>12.839831340218</v>
+        <v>0.5684198087969999</v>
       </c>
       <c r="S6">
-        <v>0.02475127148843978</v>
+        <v>0.005833406235837848</v>
       </c>
       <c r="T6">
-        <v>0.02696490937592614</v>
+        <v>0.008247173564582686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>3.981953</v>
       </c>
       <c r="I7">
-        <v>0.06006306454875144</v>
+        <v>0.0583987308700193</v>
       </c>
       <c r="J7">
-        <v>0.06462688585491309</v>
+        <v>0.06247056753580275</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.436816333333333</v>
+        <v>0.080995</v>
       </c>
       <c r="N7">
-        <v>4.310449</v>
+        <v>0.242985</v>
       </c>
       <c r="O7">
-        <v>0.5508702875863194</v>
+        <v>0.1700298620258944</v>
       </c>
       <c r="P7">
-        <v>0.5577570358055657</v>
+        <v>0.2247170748354054</v>
       </c>
       <c r="Q7">
-        <v>1.907111702988556</v>
+        <v>0.1075060944116667</v>
       </c>
       <c r="R7">
-        <v>17.164005326897</v>
+        <v>0.9675548497050001</v>
       </c>
       <c r="S7">
-        <v>0.03308695764128637</v>
+        <v>0.009929528152316723</v>
       </c>
       <c r="T7">
-        <v>0.03604610028778097</v>
+        <v>0.01403820319995323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H8">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I8">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J8">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.09661449999999999</v>
+        <v>0.3477795</v>
       </c>
       <c r="N8">
-        <v>0.193229</v>
+        <v>0.695559</v>
       </c>
       <c r="O8">
-        <v>0.03704165672764608</v>
+        <v>0.7300808741333977</v>
       </c>
       <c r="P8">
-        <v>0.02500315727472327</v>
+        <v>0.6432659787865084</v>
       </c>
       <c r="Q8">
-        <v>0.5012454942209998</v>
+        <v>1.241009875916</v>
       </c>
       <c r="R8">
-        <v>3.007472965326</v>
+        <v>7.446059255496001</v>
       </c>
       <c r="S8">
-        <v>0.008696233371745712</v>
+        <v>0.1146227343449446</v>
       </c>
       <c r="T8">
-        <v>0.006315989191115539</v>
+        <v>0.1080344880700205</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H9">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I9">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J9">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.074835333333333</v>
+        <v>0.04758299999999999</v>
       </c>
       <c r="N9">
-        <v>3.224506</v>
+        <v>0.142749</v>
       </c>
       <c r="O9">
-        <v>0.4120880556860346</v>
+        <v>0.09988926384070786</v>
       </c>
       <c r="P9">
-        <v>0.417239806919711</v>
+        <v>0.1320169463780862</v>
       </c>
       <c r="Q9">
-        <v>5.576351043196</v>
+        <v>0.169794288984</v>
       </c>
       <c r="R9">
-        <v>50.187159388764</v>
+        <v>1.528148600856</v>
       </c>
       <c r="S9">
-        <v>0.09674550812626222</v>
+        <v>0.01568261949981382</v>
       </c>
       <c r="T9">
-        <v>0.1053979736100027</v>
+        <v>0.02217182889950006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.188097999999999</v>
+        <v>3.568381333333333</v>
       </c>
       <c r="H10">
-        <v>15.564294</v>
+        <v>10.705144</v>
       </c>
       <c r="I10">
-        <v>0.2347690179109961</v>
+        <v>0.1570000508245079</v>
       </c>
       <c r="J10">
-        <v>0.2526076655727249</v>
+        <v>0.1679468394610618</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.436816333333333</v>
+        <v>0.080995</v>
       </c>
       <c r="N10">
-        <v>4.310449</v>
+        <v>0.242985</v>
       </c>
       <c r="O10">
-        <v>0.5508702875863194</v>
+        <v>0.1700298620258944</v>
       </c>
       <c r="P10">
-        <v>0.5577570358055657</v>
+        <v>0.2247170748354054</v>
       </c>
       <c r="Q10">
-        <v>7.454343945333999</v>
+        <v>0.2890210460933333</v>
       </c>
       <c r="R10">
-        <v>67.089095508006</v>
+        <v>2.60118941484</v>
       </c>
       <c r="S10">
-        <v>0.1293272764129882</v>
+        <v>0.0266946969797495</v>
       </c>
       <c r="T10">
-        <v>0.1408937027716067</v>
+        <v>0.03774052249154124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H11">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I11">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J11">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.09661449999999999</v>
+        <v>0.3477795</v>
       </c>
       <c r="N11">
-        <v>0.193229</v>
+        <v>0.695559</v>
       </c>
       <c r="O11">
-        <v>0.03704165672764608</v>
+        <v>0.7300808741333977</v>
       </c>
       <c r="P11">
-        <v>0.02500315727472327</v>
+        <v>0.6432659787865084</v>
       </c>
       <c r="Q11">
-        <v>0.08755664908875001</v>
+        <v>0.43756521184575</v>
       </c>
       <c r="R11">
-        <v>0.350226596355</v>
+        <v>1.750260847383</v>
       </c>
       <c r="S11">
-        <v>0.001519042190907173</v>
+        <v>0.04041460266298448</v>
       </c>
       <c r="T11">
-        <v>0.0007355103179720817</v>
+        <v>0.02539444398007643</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H12">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I12">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J12">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,28 +1181,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>1.074835333333333</v>
+        <v>0.04758299999999999</v>
       </c>
       <c r="N12">
-        <v>3.224506</v>
+        <v>0.142749</v>
       </c>
       <c r="O12">
-        <v>0.4120880556860346</v>
+        <v>0.09988926384070786</v>
       </c>
       <c r="P12">
-        <v>0.417239806919711</v>
+        <v>0.1320169463780862</v>
       </c>
       <c r="Q12">
-        <v>0.9740668337450001</v>
+        <v>0.05986743173549999</v>
       </c>
       <c r="R12">
-        <v>5.844401002470001</v>
+        <v>0.359204590413</v>
       </c>
       <c r="S12">
-        <v>0.01689932897868445</v>
+        <v>0.005529503718628585</v>
       </c>
       <c r="T12">
-        <v>0.01227381724980663</v>
+        <v>0.005211680797332691</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9062475000000001</v>
+        <v>1.2581685</v>
       </c>
       <c r="H13">
-        <v>1.812495</v>
+        <v>2.516337</v>
       </c>
       <c r="I13">
-        <v>0.04100902403140717</v>
+        <v>0.0553563366674362</v>
       </c>
       <c r="J13">
-        <v>0.02941669765504533</v>
+        <v>0.03947736211385199</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>1.436816333333333</v>
+        <v>0.080995</v>
       </c>
       <c r="N13">
-        <v>4.310449</v>
+        <v>0.242985</v>
       </c>
       <c r="O13">
-        <v>0.5508702875863194</v>
+        <v>0.1700298620258944</v>
       </c>
       <c r="P13">
-        <v>0.5577570358055657</v>
+        <v>0.2247170748354054</v>
       </c>
       <c r="Q13">
-        <v>1.3021112100425</v>
+        <v>0.1019053576575</v>
       </c>
       <c r="R13">
-        <v>7.812667260255001</v>
+        <v>0.6114321459450001</v>
       </c>
       <c r="S13">
-        <v>0.02259065286181555</v>
+        <v>0.009412230285823138</v>
       </c>
       <c r="T13">
-        <v>0.01640737008726662</v>
+        <v>0.008871237336442874</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H14">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I14">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J14">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.09661449999999999</v>
+        <v>0.3477795</v>
       </c>
       <c r="N14">
-        <v>0.193229</v>
+        <v>0.695559</v>
       </c>
       <c r="O14">
-        <v>0.03704165672764608</v>
+        <v>0.7300808741333977</v>
       </c>
       <c r="P14">
-        <v>0.02500315727472327</v>
+        <v>0.6432659787865084</v>
       </c>
       <c r="Q14">
-        <v>0.3114933924373333</v>
+        <v>4.030815064880501</v>
       </c>
       <c r="R14">
-        <v>1.868960354624</v>
+        <v>24.184890389283</v>
       </c>
       <c r="S14">
-        <v>0.005404176727018117</v>
+        <v>0.3722960254722993</v>
       </c>
       <c r="T14">
-        <v>0.003925000668176947</v>
+        <v>0.3508973220038797</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H15">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I15">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J15">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>1.074835333333333</v>
+        <v>0.04758299999999999</v>
       </c>
       <c r="N15">
-        <v>3.224506</v>
+        <v>0.142749</v>
       </c>
       <c r="O15">
-        <v>0.4120880556860346</v>
+        <v>0.09988926384070786</v>
       </c>
       <c r="P15">
-        <v>0.417239806919711</v>
+        <v>0.1320169463780862</v>
       </c>
       <c r="Q15">
-        <v>3.465360833948445</v>
+        <v>0.5514939012569999</v>
       </c>
       <c r="R15">
-        <v>31.188247505536</v>
+        <v>4.963445111313</v>
       </c>
       <c r="S15">
-        <v>0.06012141131793634</v>
+        <v>0.0509373375372856</v>
       </c>
       <c r="T15">
-        <v>0.06549838898167756</v>
+        <v>0.0720143680388462</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.224085333333333</v>
+        <v>11.59014566666667</v>
       </c>
       <c r="H16">
-        <v>9.672256000000001</v>
+        <v>34.770437</v>
       </c>
       <c r="I16">
-        <v>0.145894573959072</v>
+        <v>0.5099380611965939</v>
       </c>
       <c r="J16">
-        <v>0.1569802015421825</v>
+        <v>0.545493362894508</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.436816333333333</v>
+        <v>0.080995</v>
       </c>
       <c r="N16">
-        <v>4.310449</v>
+        <v>0.242985</v>
       </c>
       <c r="O16">
-        <v>0.5508702875863194</v>
+        <v>0.1700298620258944</v>
       </c>
       <c r="P16">
-        <v>0.5577570358055657</v>
+        <v>0.2247170748354054</v>
       </c>
       <c r="Q16">
-        <v>4.632418466993778</v>
+        <v>0.9387438482716666</v>
       </c>
       <c r="R16">
-        <v>41.691766202944</v>
+        <v>8.448694634445001</v>
       </c>
       <c r="S16">
-        <v>0.08036898591411752</v>
+        <v>0.08670469818700897</v>
       </c>
       <c r="T16">
-        <v>0.08755681189232802</v>
+        <v>0.1225816728517821</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H17">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I17">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J17">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.09661449999999999</v>
+        <v>0.3477795</v>
       </c>
       <c r="N17">
-        <v>0.193229</v>
+        <v>0.695559</v>
       </c>
       <c r="O17">
-        <v>0.03704165672764608</v>
+        <v>0.7300808741333977</v>
       </c>
       <c r="P17">
-        <v>0.02500315727472327</v>
+        <v>0.6432659787865084</v>
       </c>
       <c r="Q17">
-        <v>0.7417604967511666</v>
+        <v>0.625428568266</v>
       </c>
       <c r="R17">
-        <v>4.450562980507</v>
+        <v>3.752571409596</v>
       </c>
       <c r="S17">
-        <v>0.0128689882703387</v>
+        <v>0.05776612581683043</v>
       </c>
       <c r="T17">
-        <v>0.009346620236772163</v>
+        <v>0.05444586421772896</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H18">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I18">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J18">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1553,28 +1553,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>1.074835333333333</v>
+        <v>0.04758299999999999</v>
       </c>
       <c r="N18">
-        <v>3.224506</v>
+        <v>0.142749</v>
       </c>
       <c r="O18">
-        <v>0.4120880556860346</v>
+        <v>0.09988926384070786</v>
       </c>
       <c r="P18">
-        <v>0.417239806919711</v>
+        <v>0.1320169463780862</v>
       </c>
       <c r="Q18">
-        <v>8.252078008777556</v>
+        <v>0.08557079288399999</v>
       </c>
       <c r="R18">
-        <v>74.268702078998</v>
+        <v>0.770137135956</v>
       </c>
       <c r="S18">
-        <v>0.1431673640831578</v>
+        <v>0.007903529577626748</v>
       </c>
       <c r="T18">
-        <v>0.1559715831122309</v>
+        <v>0.01117387981640176</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.677527666666666</v>
+        <v>1.798348</v>
       </c>
       <c r="H19">
-        <v>23.032583</v>
+        <v>5.395044</v>
       </c>
       <c r="I19">
-        <v>0.3474193491117236</v>
+        <v>0.07912291345174399</v>
       </c>
       <c r="J19">
-        <v>0.3738175996765436</v>
+        <v>0.0846397384802451</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>1.436816333333333</v>
+        <v>0.080995</v>
       </c>
       <c r="N19">
-        <v>4.310449</v>
+        <v>0.242985</v>
       </c>
       <c r="O19">
-        <v>0.5508702875863194</v>
+        <v>0.1700298620258944</v>
       </c>
       <c r="P19">
-        <v>0.5577570358055657</v>
+        <v>0.2247170748354054</v>
       </c>
       <c r="Q19">
-        <v>11.03119715108522</v>
+        <v>0.14565719626</v>
       </c>
       <c r="R19">
-        <v>99.28077435976699</v>
+        <v>1.31091476634</v>
       </c>
       <c r="S19">
-        <v>0.1913829967582271</v>
+        <v>0.01345325805728682</v>
       </c>
       <c r="T19">
-        <v>0.2084993963275406</v>
+        <v>0.01901999444611438</v>
       </c>
     </row>
   </sheetData>
